--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.951201</v>
+        <v>1.699314666666667</v>
       </c>
       <c r="H2">
-        <v>11.853603</v>
+        <v>5.097944</v>
       </c>
       <c r="I2">
-        <v>0.02777656860153119</v>
+        <v>0.01313494849782423</v>
       </c>
       <c r="J2">
-        <v>0.03047491234640643</v>
+        <v>0.0136763907731691</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>15.594104889608</v>
+        <v>4.939646607979554</v>
       </c>
       <c r="R2">
-        <v>140.346944006472</v>
+        <v>44.45681947181599</v>
       </c>
       <c r="S2">
-        <v>0.0002244982229305455</v>
+        <v>7.251182125012223E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002534806764283045</v>
+        <v>7.692341853807031E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.951201</v>
+        <v>1.699314666666667</v>
       </c>
       <c r="H3">
-        <v>11.853603</v>
+        <v>5.097944</v>
       </c>
       <c r="I3">
-        <v>0.02777656860153119</v>
+        <v>0.01313494849782423</v>
       </c>
       <c r="J3">
-        <v>0.03047491234640643</v>
+        <v>0.0136763907731691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>734.1439892126109</v>
+        <v>315.7373285525502</v>
       </c>
       <c r="R3">
-        <v>6607.295902913499</v>
+        <v>2841.635956972952</v>
       </c>
       <c r="S3">
-        <v>0.01056899527867135</v>
+        <v>0.004634883939472375</v>
       </c>
       <c r="T3">
-        <v>0.01193343999535355</v>
+        <v>0.004916868877442692</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.951201</v>
+        <v>1.699314666666667</v>
       </c>
       <c r="H4">
-        <v>11.853603</v>
+        <v>5.097944</v>
       </c>
       <c r="I4">
-        <v>0.02777656860153119</v>
+        <v>0.01313494849782423</v>
       </c>
       <c r="J4">
-        <v>0.03047491234640643</v>
+        <v>0.0136763907731691</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>463.631650765291</v>
+        <v>232.9279649223271</v>
       </c>
       <c r="R4">
-        <v>4172.684856887619</v>
+        <v>2096.351684300944</v>
       </c>
       <c r="S4">
-        <v>0.006674604437252798</v>
+        <v>0.003419279211050887</v>
       </c>
       <c r="T4">
-        <v>0.007536287929413282</v>
+        <v>0.003627307124764113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.951201</v>
+        <v>1.699314666666667</v>
       </c>
       <c r="H5">
-        <v>11.853603</v>
+        <v>5.097944</v>
       </c>
       <c r="I5">
-        <v>0.02777656860153119</v>
+        <v>0.01313494849782423</v>
       </c>
       <c r="J5">
-        <v>0.03047491234640643</v>
+        <v>0.0136763907731691</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>163.811159047374</v>
+        <v>49.64163158791867</v>
       </c>
       <c r="R5">
-        <v>982.8669542842439</v>
+        <v>297.849789527512</v>
       </c>
       <c r="S5">
-        <v>0.002358283105228803</v>
+        <v>0.000728717133418561</v>
       </c>
       <c r="T5">
-        <v>0.00177515643233036</v>
+        <v>0.0005153680423725789</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.951201</v>
+        <v>1.699314666666667</v>
       </c>
       <c r="H6">
-        <v>11.853603</v>
+        <v>5.097944</v>
       </c>
       <c r="I6">
-        <v>0.02777656860153119</v>
+        <v>0.01313494849782423</v>
       </c>
       <c r="J6">
-        <v>0.03047491234640643</v>
+        <v>0.0136763907731691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>552.2362584636189</v>
+        <v>291.5317234358898</v>
       </c>
       <c r="R6">
-        <v>4970.126326172571</v>
+        <v>2623.785510923008</v>
       </c>
       <c r="S6">
-        <v>0.0079501875574477</v>
+        <v>0.004279556392632289</v>
       </c>
       <c r="T6">
-        <v>0.008976547312880936</v>
+        <v>0.004539923310051642</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>293.965202</v>
       </c>
       <c r="I7">
-        <v>0.6888491709918051</v>
+        <v>0.7574068660664961</v>
       </c>
       <c r="J7">
-        <v>0.7557671506160331</v>
+        <v>0.7886283129562799</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>386.7283385383164</v>
+        <v>284.8372231870975</v>
       </c>
       <c r="R7">
-        <v>3480.555046844848</v>
+        <v>2563.535008683878</v>
       </c>
       <c r="S7">
-        <v>0.005567477285380558</v>
+        <v>0.004181284098291403</v>
       </c>
       <c r="T7">
-        <v>0.006286231979368904</v>
+        <v>0.004435672159026145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>293.965202</v>
       </c>
       <c r="I8">
-        <v>0.6888491709918051</v>
+        <v>0.7574068660664961</v>
       </c>
       <c r="J8">
-        <v>0.7557671506160331</v>
+        <v>0.7886283129562799</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>18206.51375670089</v>
@@ -948,10 +948,10 @@
         <v>163858.6238103081</v>
       </c>
       <c r="S8">
-        <v>0.2621073805181149</v>
+        <v>0.2672635465422046</v>
       </c>
       <c r="T8">
-        <v>0.2959451315173105</v>
+        <v>0.2835237799326462</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>293.965202</v>
       </c>
       <c r="I9">
-        <v>0.6888491709918051</v>
+        <v>0.7574068660664961</v>
       </c>
       <c r="J9">
-        <v>0.7557671506160331</v>
+        <v>0.7886283129562799</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>11497.90252557068</v>
+        <v>13431.43750889394</v>
       </c>
       <c r="R9">
-        <v>103481.1227301362</v>
+        <v>120882.9375800454</v>
       </c>
       <c r="S9">
-        <v>0.1655278518832725</v>
+        <v>0.1971675451850735</v>
       </c>
       <c r="T9">
-        <v>0.1868973006351012</v>
+        <v>0.2091631590396681</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>293.965202</v>
       </c>
       <c r="I10">
-        <v>0.6888491709918051</v>
+        <v>0.7574068660664961</v>
       </c>
       <c r="J10">
-        <v>0.7557671506160331</v>
+        <v>0.7886283129562799</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>4062.459360180649</v>
+        <v>2862.509328731757</v>
       </c>
       <c r="R10">
-        <v>24374.75616108389</v>
+        <v>17175.05597239054</v>
       </c>
       <c r="S10">
-        <v>0.05848459488661567</v>
+        <v>0.04202036729439323</v>
       </c>
       <c r="T10">
-        <v>0.04402325767208447</v>
+        <v>0.02971791582653707</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>293.965202</v>
       </c>
       <c r="I11">
-        <v>0.6888491709918051</v>
+        <v>0.7574068660664961</v>
       </c>
       <c r="J11">
-        <v>0.7557671506160331</v>
+        <v>0.7886283129562799</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>13695.2657576757</v>
+        <v>16810.73428214187</v>
       </c>
       <c r="R11">
-        <v>123257.3918190813</v>
+        <v>151296.6085392768</v>
       </c>
       <c r="S11">
-        <v>0.1971618664184214</v>
+        <v>0.2467741229465334</v>
       </c>
       <c r="T11">
-        <v>0.222615228812168</v>
+        <v>0.2617877859984024</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.822422666666667</v>
+        <v>3.143799666666666</v>
       </c>
       <c r="H12">
-        <v>5.467268</v>
+        <v>9.431398999999999</v>
       </c>
       <c r="I12">
-        <v>0.01281145864805462</v>
+        <v>0.02430017672368134</v>
       </c>
       <c r="J12">
-        <v>0.01405602271936329</v>
+        <v>0.02530186645080374</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>7.192509370492444</v>
+        <v>9.138542533784554</v>
       </c>
       <c r="R12">
-        <v>64.73258433443199</v>
+        <v>82.24688280406097</v>
       </c>
       <c r="S12">
-        <v>0.0001035458965755001</v>
+        <v>0.0001341497510421027</v>
       </c>
       <c r="T12">
-        <v>0.0001169135486362099</v>
+        <v>0.000142311381348351</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.822422666666667</v>
+        <v>3.143799666666666</v>
       </c>
       <c r="H13">
-        <v>5.467268</v>
+        <v>9.431398999999999</v>
       </c>
       <c r="I13">
-        <v>0.01281145864805462</v>
+        <v>0.02430017672368134</v>
       </c>
       <c r="J13">
-        <v>0.01405602271936329</v>
+        <v>0.02530186645080374</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>338.6111328019382</v>
+        <v>584.1266057008851</v>
       </c>
       <c r="R13">
-        <v>3047.500195217444</v>
+        <v>5257.139451307967</v>
       </c>
       <c r="S13">
-        <v>0.004874765054914606</v>
+        <v>0.00857471948531718</v>
       </c>
       <c r="T13">
-        <v>0.005504091424060401</v>
+        <v>0.009096402827069918</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.822422666666667</v>
+        <v>3.143799666666666</v>
       </c>
       <c r="H14">
-        <v>5.467268</v>
+        <v>9.431398999999999</v>
       </c>
       <c r="I14">
-        <v>0.01281145864805462</v>
+        <v>0.02430017672368134</v>
       </c>
       <c r="J14">
-        <v>0.01405602271936329</v>
+        <v>0.02530186645080374</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>213.8420265986849</v>
+        <v>430.925992015697</v>
       </c>
       <c r="R14">
-        <v>1924.578239388164</v>
+        <v>3878.333928141273</v>
       </c>
       <c r="S14">
-        <v>0.00307854508476876</v>
+        <v>0.006325802427768159</v>
       </c>
       <c r="T14">
-        <v>0.00347598159270793</v>
+        <v>0.00671066233548135</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.822422666666667</v>
+        <v>3.143799666666666</v>
       </c>
       <c r="H15">
-        <v>5.467268</v>
+        <v>9.431398999999999</v>
       </c>
       <c r="I15">
-        <v>0.01281145864805462</v>
+        <v>0.02430017672368134</v>
       </c>
       <c r="J15">
-        <v>0.01405602271936329</v>
+        <v>0.02530186645080374</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>75.55504498527732</v>
+        <v>91.83899127112115</v>
       </c>
       <c r="R15">
-        <v>453.3302699116639</v>
+        <v>551.0339476267269</v>
       </c>
       <c r="S15">
-        <v>0.001087717022086708</v>
+        <v>0.001348155657144661</v>
       </c>
       <c r="T15">
-        <v>0.0008187599970636728</v>
+        <v>0.0009534513598942432</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.822422666666667</v>
+        <v>3.143799666666666</v>
       </c>
       <c r="H16">
-        <v>5.467268</v>
+        <v>9.431398999999999</v>
       </c>
       <c r="I16">
-        <v>0.01281145864805462</v>
+        <v>0.02430017672368134</v>
       </c>
       <c r="J16">
-        <v>0.01405602271936329</v>
+        <v>0.02530186645080374</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>254.7093591997195</v>
+        <v>539.3452742677297</v>
       </c>
       <c r="R16">
-        <v>2292.384232797476</v>
+        <v>4854.107468409567</v>
       </c>
       <c r="S16">
-        <v>0.00366688558970905</v>
+        <v>0.00791734940240924</v>
       </c>
       <c r="T16">
-        <v>0.004140276156895075</v>
+        <v>0.008399038547009881</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.7856235</v>
+        <v>15.365523</v>
       </c>
       <c r="H17">
-        <v>75.571247</v>
+        <v>30.731046</v>
       </c>
       <c r="I17">
-        <v>0.2656293525182291</v>
+        <v>0.1187686761057793</v>
       </c>
       <c r="J17">
-        <v>0.1942892071072087</v>
+        <v>0.08244299936684966</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>149.1275630316547</v>
+        <v>44.66521419229899</v>
       </c>
       <c r="R17">
-        <v>894.765378189928</v>
+        <v>267.991285153794</v>
       </c>
       <c r="S17">
-        <v>0.002146892888535071</v>
+        <v>0.0006556655333153767</v>
       </c>
       <c r="T17">
-        <v>0.001616036137543199</v>
+        <v>0.000463704017456977</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>37.7856235</v>
+        <v>15.365523</v>
       </c>
       <c r="H18">
-        <v>75.571247</v>
+        <v>30.731046</v>
       </c>
       <c r="I18">
-        <v>0.2656293525182291</v>
+        <v>0.1187686761057793</v>
       </c>
       <c r="J18">
-        <v>0.1942892071072087</v>
+        <v>0.08244299936684966</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>7020.672542646092</v>
+        <v>2854.956341516953</v>
       </c>
       <c r="R18">
-        <v>42124.03525587655</v>
+        <v>17129.73804910172</v>
       </c>
       <c r="S18">
-        <v>0.1010720731173011</v>
+        <v>0.0419094927921688</v>
       </c>
       <c r="T18">
-        <v>0.07608023834175502</v>
+        <v>0.02963950244425198</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>37.7856235</v>
+        <v>15.365523</v>
       </c>
       <c r="H19">
-        <v>75.571247</v>
+        <v>30.731046</v>
       </c>
       <c r="I19">
-        <v>0.2656293525182291</v>
+        <v>0.1187686761057793</v>
       </c>
       <c r="J19">
-        <v>0.1942892071072087</v>
+        <v>0.08244299936684966</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>4433.743309566072</v>
+        <v>2106.178492166965</v>
       </c>
       <c r="R19">
-        <v>26602.45985739643</v>
+        <v>12637.07095300179</v>
       </c>
       <c r="S19">
-        <v>0.0638297293095096</v>
+        <v>0.03091776608030075</v>
       </c>
       <c r="T19">
-        <v>0.04804671428398689</v>
+        <v>0.02186586241576088</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.7856235</v>
+        <v>15.365523</v>
       </c>
       <c r="H20">
-        <v>75.571247</v>
+        <v>30.731046</v>
       </c>
       <c r="I20">
-        <v>0.2656293525182291</v>
+        <v>0.1187686761057793</v>
       </c>
       <c r="J20">
-        <v>0.1942892071072087</v>
+        <v>0.08244299936684966</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>1566.538068010889</v>
+        <v>448.8689745836895</v>
       </c>
       <c r="R20">
-        <v>6266.152272043556</v>
+        <v>1795.475898334758</v>
       </c>
       <c r="S20">
-        <v>0.02255243342988282</v>
+        <v>0.006589197453348036</v>
       </c>
       <c r="T20">
-        <v>0.01131730033571028</v>
+        <v>0.003106703215469151</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.7856235</v>
+        <v>15.365523</v>
       </c>
       <c r="H21">
-        <v>75.571247</v>
+        <v>30.731046</v>
       </c>
       <c r="I21">
-        <v>0.2656293525182291</v>
+        <v>0.1187686761057793</v>
       </c>
       <c r="J21">
-        <v>0.1942892071072087</v>
+        <v>0.08244299936684966</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>5281.075638863979</v>
+        <v>2636.084704942112</v>
       </c>
       <c r="R21">
-        <v>31686.45383318388</v>
+        <v>15816.50822965267</v>
       </c>
       <c r="S21">
-        <v>0.07602822377300052</v>
+        <v>0.03869655424664637</v>
       </c>
       <c r="T21">
-        <v>0.05722891800821333</v>
+        <v>0.02736722727391067</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7017803333333333</v>
+        <v>11.176493</v>
       </c>
       <c r="H22">
-        <v>2.105341</v>
+        <v>33.529479</v>
       </c>
       <c r="I22">
-        <v>0.004933449240380017</v>
+        <v>0.08638933260621913</v>
       </c>
       <c r="J22">
-        <v>0.005412707210988564</v>
+        <v>0.08995043045289769</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>2.769698663131555</v>
+        <v>32.48834769657567</v>
       </c>
       <c r="R22">
-        <v>24.927287968184</v>
+        <v>292.395129269181</v>
       </c>
       <c r="S22">
-        <v>3.987355685548248E-05</v>
+        <v>0.0004769145341450841</v>
       </c>
       <c r="T22">
-        <v>4.502118560848066E-05</v>
+        <v>0.000505929870253663</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7017803333333333</v>
+        <v>11.176493</v>
       </c>
       <c r="H23">
-        <v>2.105341</v>
+        <v>33.529479</v>
       </c>
       <c r="I23">
-        <v>0.004933449240380017</v>
+        <v>0.08638933260621913</v>
       </c>
       <c r="J23">
-        <v>0.005412707210988564</v>
+        <v>0.08995043045289769</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>130.3927118524948</v>
+        <v>2076.62307142229</v>
       </c>
       <c r="R23">
-        <v>1173.534406672453</v>
+        <v>18689.60764280061</v>
       </c>
       <c r="S23">
-        <v>0.001877179376514737</v>
+        <v>0.03048390561292479</v>
       </c>
       <c r="T23">
-        <v>0.002119521000767248</v>
+        <v>0.0323385372165658</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7017803333333333</v>
+        <v>11.176493</v>
       </c>
       <c r="H24">
-        <v>2.105341</v>
+        <v>33.529479</v>
       </c>
       <c r="I24">
-        <v>0.004933449240380017</v>
+        <v>0.08638933260621913</v>
       </c>
       <c r="J24">
-        <v>0.005412707210988564</v>
+        <v>0.08995043045289769</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>82.34650032178811</v>
+        <v>1531.980992411039</v>
       </c>
       <c r="R24">
-        <v>741.1185028960931</v>
+        <v>13787.82893169935</v>
       </c>
       <c r="S24">
-        <v>0.00118548920362275</v>
+        <v>0.02248880146625135</v>
       </c>
       <c r="T24">
-        <v>0.00133853444944958</v>
+        <v>0.02385701335015229</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7017803333333333</v>
+        <v>11.176493</v>
       </c>
       <c r="H25">
-        <v>2.105341</v>
+        <v>33.529479</v>
       </c>
       <c r="I25">
-        <v>0.004933449240380017</v>
+        <v>0.08638933260621913</v>
       </c>
       <c r="J25">
-        <v>0.005412707210988564</v>
+        <v>0.08995043045289769</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>29.09481188124467</v>
+        <v>326.4959450030945</v>
       </c>
       <c r="R25">
-        <v>174.568871287468</v>
+        <v>1958.975670018567</v>
       </c>
       <c r="S25">
-        <v>0.0004188591528706937</v>
+        <v>0.004792815657037001</v>
       </c>
       <c r="T25">
-        <v>0.000315288914130061</v>
+        <v>0.003389606075312419</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.7017803333333333</v>
+        <v>11.176493</v>
       </c>
       <c r="H26">
-        <v>2.105341</v>
+        <v>33.529479</v>
       </c>
       <c r="I26">
-        <v>0.004933449240380017</v>
+        <v>0.08638933260621913</v>
       </c>
       <c r="J26">
-        <v>0.005412707210988564</v>
+        <v>0.08995043045289769</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>98.08373341253744</v>
+        <v>1917.421375907125</v>
       </c>
       <c r="R26">
-        <v>882.7536007128371</v>
+        <v>17256.79238316413</v>
       </c>
       <c r="S26">
-        <v>0.001412047950516353</v>
+        <v>0.0281468953358609</v>
       </c>
       <c r="T26">
-        <v>0.001594341661033195</v>
+        <v>0.02985934394061351</v>
       </c>
     </row>
   </sheetData>
